--- a/assets/data/promo.xlsx
+++ b/assets/data/promo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew\flutter_application_1\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224082C8-1F90-498A-BA1E-D6B6884A66D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0B7E9-B906-401E-80E6-5547537B0B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16944" yWindow="0" windowWidth="6096" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="276" windowWidth="16332" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,12 +287,6 @@
     <t>Cashback Voucher 20%</t>
   </si>
   <si>
-    <t>Max. discount 200rb\n
-Without Min. Transactions\n
-Takeaway Only\n
-Valid until 15 May 2023\n</t>
-  </si>
-  <si>
     <t>Takeaway</t>
   </si>
   <si>
@@ -306,6 +300,12 @@
   </si>
   <si>
     <t>S&amp;K</t>
+  </si>
+  <si>
+    <t>Max. discount 200rb
+Without Min. Transactions
+Takeaway Only
+Valid until 15 May 2023</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1">
         <v>200000</v>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1">
         <v>15</v>

--- a/assets/data/promo.xlsx
+++ b/assets/data/promo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew\flutter_application_1\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0B7E9-B906-401E-80E6-5547537B0B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA87FFE-246F-4905-B648-57CD4BE44151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6120" yWindow="276" windowWidth="16332" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{49FC0AB0-9160-49E6-8AF8-DFE7C9DD8539}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{AABBBEB2-BB1D-4B70-87B7-9E7E58B144DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ndimas:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>max ongkir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{49FC0AB0-9160-49E6-8AF8-DFE7C9DD8539}">
       <text>
         <r>
           <rPr>
@@ -202,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{30376B5F-BBE0-458B-BF73-883909305080}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{30376B5F-BBE0-458B-BF73-883909305080}">
       <text>
         <r>
           <rPr>
@@ -226,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{80912DD0-28BC-4442-A663-6C5B7E0F8E35}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{80912DD0-28BC-4442-A663-6C5B7E0F8E35}">
       <text>
         <r>
           <rPr>
@@ -250,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{CA9F45BA-30B9-4DE6-BD11-75172F5A7086}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{CA9F45BA-30B9-4DE6-BD11-75172F5A7086}">
       <text>
         <r>
           <rPr>
@@ -279,13 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>CASHBACK20</t>
-  </si>
-  <si>
-    <t>Cashback Voucher 20%</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Takeaway</t>
   </si>
@@ -306,6 +324,57 @@
 Without Min. Transactions
 Takeaway Only
 Valid until 15 May 2023</t>
+  </si>
+  <si>
+    <t>RANDUMUNCH</t>
+  </si>
+  <si>
+    <t>DELIZIORAN</t>
+  </si>
+  <si>
+    <t>RANFORYOU</t>
+  </si>
+  <si>
+    <t>Dine-In</t>
+  </si>
+  <si>
+    <t>Max. discount 200rb
+Min. Transactions 100rb
+Dine-In Only
+Valid until 30 May 2023</t>
+  </si>
+  <si>
+    <t>Max. discount 50rb
+Min. Transactions 50rb
+Takeaway Only
+Valid until 15 May 2024</t>
+  </si>
+  <si>
+    <t>GOPAYDAY</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Gopay</t>
+  </si>
+  <si>
+    <t>Max. discount 20rb + Free Delivery
+Without Min. Transactions
+Delivery Only
+Valid until 30 May 2023</t>
+  </si>
+  <si>
+    <t>RANDUMUNCH 20%</t>
+  </si>
+  <si>
+    <t>DELIZIORAN 25%</t>
+  </si>
+  <si>
+    <t>RANFORYOU 65%</t>
+  </si>
+  <si>
+    <t>GOPAY 5%</t>
   </si>
 </sst>
 </file>
@@ -661,32 +730,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>200000</v>
@@ -695,27 +767,171 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1">
+      <c r="J2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>15</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N3" s="1">
         <v>5</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O3" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
         <v>2023</v>
       </c>
     </row>

--- a/assets/data/promo.xlsx
+++ b/assets/data/promo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew\flutter_application_1\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew2\flutter_application_1\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA87FFE-246F-4905-B648-57CD4BE44151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421CDB7D-521A-488D-B472-FA8494E0BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="276" windowWidth="16332" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Takeaway</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>All-Types</t>
-  </si>
-  <si>
-    <t>S&amp;K</t>
   </si>
   <si>
     <t>Max. discount 200rb
@@ -359,22 +356,100 @@
     <t>Gopay</t>
   </si>
   <si>
+    <t>RANDUMUNCH 20%</t>
+  </si>
+  <si>
+    <t>DELIZIORAN 25%</t>
+  </si>
+  <si>
+    <t>RANFORYOU 65%</t>
+  </si>
+  <si>
+    <t>GOPAY 5%</t>
+  </si>
+  <si>
+    <t>• The voucher code "RANDUMUNCH" offers a maximum 20% discount of IDR 200,000 on eligible purchases.
+• There is no minimum transaction amount required to avail of the discount.
+• The voucher code is applicable only for takeaway orders.
+• The validity of the voucher code is until 15th May 2023. After this date, the voucher code will no longer be valid.
+• The voucher code can be used only once per user account.
+• The discount is applicable to the total bill amount, including taxes and service charges, if applicable.
+• The voucher code cannot be combined with any other promotional offers, discounts, or vouchers.
+• Only one voucher code can be used per transaction. If multiple vouchers are attempted to be used together, only one voucher will be applied.
+• The voucher code is non-transferable and cannot be exchanged for cash or any other form of credit.
+• The discount provided by the voucher code is not applicable to any delivery charges or additional fees that may be incurred.
+• The voucher code is valid for use on the official website or mobile app of RANDUMU only.
+• RANDUMU reserves the right to modify or cancel the voucher code, terms, and conditions, or any aspect of the promotion without prior notice.
+• In case of any disputes regarding the voucher code or its usage, the decision of RANDUMU shall be final and binding.
+• The voucher code is applicable to customers in all cities and regions within Indonesia.
+• RANDUMU is not responsible for any technical issues or glitches that may prevent the successful application of the voucher code during the ordering process.
+• The voucher code cannot be used for bulk or commercial orders.
+• In the event of a refund or cancellation of an order where the voucher code was applied, the refund amount will be equal to the amount paid after deducting the voucher discount.
+• Any misuse, fraud, or unauthorized use of the voucher code may result in the cancellation of the order and the revocation of any benefits associated with the voucher code.
+Please note that these terms and conditions are subject to change, and it is advisable to review the latest terms and conditions before using the voucher code "RANDUMUNCH."</t>
+  </si>
+  <si>
+    <t>• The maximum 25% discount applicable with the voucher code "DELIZIORAN" is Rp 200,000.
+• To be eligible for the discount, the minimum transaction amount must be Rp 100,000.
+• This voucher code is exclusively valid for dine-in orders only.
+• The voucher code "DELIZIORAN" will be valid until 30 May 2023. Please note that any usage after this date will not be applicable.
+• The voucher code is non-transferable and can only be used by the individual to whom it was issued.
+• This voucher code cannot be combined with any other ongoing promotions, offers, or discounts.
+• Only one voucher code can be used per transaction.
+• The discount provided by the voucher code will be applied to the total bill amount, including taxes and service charges, if applicable.
+• The discount is not applicable to any additional charges such as delivery fees or tips.
+• The voucher code can only be redeemed at participating outlets or locations mentioned by the issuing authority.
+• The voucher code has no cash value and cannot be exchanged for cash or any other form of payment.
+• Any unauthorized reproduction, resale, or modification of the voucher code is strictly prohibited and may result in the voucher code being voided.
+• The issuing authority reserves the right to modify or terminate the voucher code at any time without prior notice. In such cases, any unused vouchers will no longer be valid.
+• The voucher code is subject to availability and may be limited in quantity. It is advised to check availability with the participating outlet before visiting.
+• The voucher code is applicable to eligible food and beverage items only and does not cover merchandise or any other non-food items.
+• The voucher code is valid for single-use only. Any remaining balance or unused portion of the discount will not be carried forward or refunded.
+• In case of any dispute, the decision of the issuing authority will be final and binding.
+• By using the voucher code, the user agrees to comply with all the terms and conditions stated herein.
+Please note that these terms and conditions are provided as a general guideline and may be subject to variations based on the specific terms mentioned by the issuing authority of the voucher code "DELIZIORAN." It is advisable to review the terms and conditions provided along with the voucher for precise and accurate information.</t>
+  </si>
+  <si>
+    <t>• The voucher code "RANFORYOU" offers a maximum 65%  discount of Rp 50,000 on eligible transactions.
+• To qualify for the discount, the minimum transaction amount must be Rp 50,000 or above.
+• This voucher code is applicable for takeaway orders only. It cannot be used for dine-in or delivery services.
+• The validity of the voucher code is until 15th May 2024. After this date, the code will no longer be usable.
+• The voucher code is non-transferable and can only be used by the person to whom it was issued.
+• Each user can redeem the voucher code only once during the validity period.
+• The discount is applicable to the total bill amount, including taxes, but excluding any additional charges such as service fees or packaging fees.
+• The voucher code cannot be combined with any other ongoing promotions, discounts, or vouchers.
+• In the case of multiple items in a single transaction, the discount will be applied to the eligible items in the order, up to the maximum discount amount of Rp 50,000.
+• This voucher code is valid for use at participating locations and outlets that accept voucher codes within the designated geographical area.
+• The voucher code is not exchangeable for cash or any other form of credit.
+• The merchant reserves the right to modify or cancel the voucher code, or to refuse its usage if any fraudulent activity or misuse is suspected.
+• The voucher code is subject to availability and may be limited to a specific number of redemptions per day or during a specific time period.
+• Any attempt to reproduce, alter, or tamper with the voucher code will render it void.
+• The merchant and its affiliates are not responsible for any loss, damage, or theft of the voucher code and will not be liable for any unauthorized usage.
+• By using the voucher code, the user agrees to comply with these terms and conditions.
+Please note that these terms and conditions are subject to change without prior notice. Make sure to review the latest terms and conditions before using the voucher code "RANFORYOU".</t>
+  </si>
+  <si>
     <t>Max. discount 20rb + Free Delivery
 Without Min. Transactions
+Gopay Transaction Only
 Delivery Only
 Valid until 30 May 2023</t>
   </si>
   <si>
-    <t>RANDUMUNCH 20%</t>
-  </si>
-  <si>
-    <t>DELIZIORAN 25%</t>
-  </si>
-  <si>
-    <t>RANFORYOU 65%</t>
-  </si>
-  <si>
-    <t>GOPAY 5%</t>
+    <t>• The voucher code "GOPAYDAY" provides a maximum 5% discount of Rp 20,000 along with free delivery.
+• There is no minimum transaction amount required to avail of the discount and free delivery.
+• The voucher code is applicable for delivery orders only. It cannot be used for dine-in or takeaway orders.
+• The voucher code is valid until 30 May 2023. Please ensure to redeem it before the expiration date.
+• The discount and free delivery are exclusively available for transactions made using Gopay as the payment method.
+• The voucher code can be used multiple times during the validity period, allowing you to enjoy the discount and free delivery on multiple orders.
+• The discount amount will be applied to the total bill, and the free delivery service will be provided at no additional cost.
+• The voucher code is non-transferable and cannot be exchanged for cash or any other form of credit.
+• It is important to note that the voucher code is applicable only to the specific restaurant or platform where it is offered. It cannot be used for transactions with other merchants.
+• The voucher code cannot be combined with any other promotional offers, discounts, or vouchers unless explicitly stated.
+• In case of order cancellations or returns, the discount and free delivery will be adjusted accordingly based on the remaining order value.
+• The terms and conditions of the voucher code "GOPAYDAY" are subject to change without prior notice. Please review the latest terms before using the voucher.
+• The merchant or platform reserves the right to cancel or suspend the voucher code at any time due to unforeseen circumstances or misuse.
+We hope you enjoy your dining experience and take advantage of the benefits provided by the voucher code "GOPAYDAY."</t>
   </si>
 </sst>
 </file>
@@ -732,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,24 +816,24 @@
     <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="360" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1">
         <v>200000</v>
@@ -794,18 +869,18 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>200000</v>
@@ -814,7 +889,7 @@
         <v>100000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
@@ -841,18 +916,18 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>50000</v>
@@ -888,18 +963,18 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>20000</v>
@@ -908,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
@@ -923,7 +998,7 @@
         <v>9999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>

--- a/assets/data/promo.xlsx
+++ b/assets/data/promo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew2\flutter_application_1\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421CDB7D-521A-488D-B472-FA8494E0BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7830CC18-7A59-4F6C-AA16-2DA5F06C45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,48 +368,6 @@
     <t>GOPAY 5%</t>
   </si>
   <si>
-    <t>• The voucher code "RANDUMUNCH" offers a maximum 20% discount of IDR 200,000 on eligible purchases.
-• There is no minimum transaction amount required to avail of the discount.
-• The voucher code is applicable only for takeaway orders.
-• The validity of the voucher code is until 15th May 2023. After this date, the voucher code will no longer be valid.
-• The voucher code can be used only once per user account.
-• The discount is applicable to the total bill amount, including taxes and service charges, if applicable.
-• The voucher code cannot be combined with any other promotional offers, discounts, or vouchers.
-• Only one voucher code can be used per transaction. If multiple vouchers are attempted to be used together, only one voucher will be applied.
-• The voucher code is non-transferable and cannot be exchanged for cash or any other form of credit.
-• The discount provided by the voucher code is not applicable to any delivery charges or additional fees that may be incurred.
-• The voucher code is valid for use on the official website or mobile app of RANDUMU only.
-• RANDUMU reserves the right to modify or cancel the voucher code, terms, and conditions, or any aspect of the promotion without prior notice.
-• In case of any disputes regarding the voucher code or its usage, the decision of RANDUMU shall be final and binding.
-• The voucher code is applicable to customers in all cities and regions within Indonesia.
-• RANDUMU is not responsible for any technical issues or glitches that may prevent the successful application of the voucher code during the ordering process.
-• The voucher code cannot be used for bulk or commercial orders.
-• In the event of a refund or cancellation of an order where the voucher code was applied, the refund amount will be equal to the amount paid after deducting the voucher discount.
-• Any misuse, fraud, or unauthorized use of the voucher code may result in the cancellation of the order and the revocation of any benefits associated with the voucher code.
-Please note that these terms and conditions are subject to change, and it is advisable to review the latest terms and conditions before using the voucher code "RANDUMUNCH."</t>
-  </si>
-  <si>
-    <t>• The maximum 25% discount applicable with the voucher code "DELIZIORAN" is Rp 200,000.
-• To be eligible for the discount, the minimum transaction amount must be Rp 100,000.
-• This voucher code is exclusively valid for dine-in orders only.
-• The voucher code "DELIZIORAN" will be valid until 30 May 2023. Please note that any usage after this date will not be applicable.
-• The voucher code is non-transferable and can only be used by the individual to whom it was issued.
-• This voucher code cannot be combined with any other ongoing promotions, offers, or discounts.
-• Only one voucher code can be used per transaction.
-• The discount provided by the voucher code will be applied to the total bill amount, including taxes and service charges, if applicable.
-• The discount is not applicable to any additional charges such as delivery fees or tips.
-• The voucher code can only be redeemed at participating outlets or locations mentioned by the issuing authority.
-• The voucher code has no cash value and cannot be exchanged for cash or any other form of payment.
-• Any unauthorized reproduction, resale, or modification of the voucher code is strictly prohibited and may result in the voucher code being voided.
-• The issuing authority reserves the right to modify or terminate the voucher code at any time without prior notice. In such cases, any unused vouchers will no longer be valid.
-• The voucher code is subject to availability and may be limited in quantity. It is advised to check availability with the participating outlet before visiting.
-• The voucher code is applicable to eligible food and beverage items only and does not cover merchandise or any other non-food items.
-• The voucher code is valid for single-use only. Any remaining balance or unused portion of the discount will not be carried forward or refunded.
-• In case of any dispute, the decision of the issuing authority will be final and binding.
-• By using the voucher code, the user agrees to comply with all the terms and conditions stated herein.
-Please note that these terms and conditions are provided as a general guideline and may be subject to variations based on the specific terms mentioned by the issuing authority of the voucher code "DELIZIORAN." It is advisable to review the terms and conditions provided along with the voucher for precise and accurate information.</t>
-  </si>
-  <si>
     <t>• The voucher code "RANFORYOU" offers a maximum 65%  discount of Rp 50,000 on eligible transactions.
 • To qualify for the discount, the minimum transaction amount must be Rp 50,000 or above.
 • This voucher code is applicable for takeaway orders only. It cannot be used for dine-in or delivery services.
@@ -436,10 +394,52 @@
 Valid until 30 May 2023</t>
   </si>
   <si>
+    <t>• The voucher code "RANDUMUNCH" offers a maximum 20% discount of IDR 200,000 on eligible purchases.
+• There is no minimum transaction amount required to avail of the discount.
+• The voucher code is applicable only for takeaway orders.
+• The validity of the voucher code is until 15th May 2024. After this date, the voucher code will no longer be valid.
+• The voucher code can be used only once per user account.
+• The discount is applicable to the total bill amount, including taxes and service charges, if applicable.
+• The voucher code cannot be combined with any other promotional offers, discounts, or vouchers.
+• Only one voucher code can be used per transaction. If multiple vouchers are attempted to be used together, only one voucher will be applied.
+• The voucher code is non-transferable and cannot be exchanged for cash or any other form of credit.
+• The discount provided by the voucher code is not applicable to any delivery charges or additional fees that may be incurred.
+• The voucher code is valid for use on the official website or mobile app of RANDUMU only.
+• RANDUMU reserves the right to modify or cancel the voucher code, terms, and conditions, or any aspect of the promotion without prior notice.
+• In case of any disputes regarding the voucher code or its usage, the decision of RANDUMU shall be final and binding.
+• The voucher code is applicable to customers in all cities and regions within Indonesia.
+• RANDUMU is not responsible for any technical issues or glitches that may prevent the successful application of the voucher code during the ordering process.
+• The voucher code cannot be used for bulk or commercial orders.
+• In the event of a refund or cancellation of an order where the voucher code was applied, the refund amount will be equal to the amount paid after deducting the voucher discount.
+• Any misuse, fraud, or unauthorized use of the voucher code may result in the cancellation of the order and the revocation of any benefits associated with the voucher code.
+Please note that these terms and conditions are subject to change, and it is advisable to review the latest terms and conditions before using the voucher code "RANDUMUNCH."</t>
+  </si>
+  <si>
+    <t>• The maximum 25% discount applicable with the voucher code "DELIZIORAN" is Rp 200,000.
+• To be eligible for the discount, the minimum transaction amount must be Rp 100,000.
+• This voucher code is exclusively valid for dine-in orders only.
+• The voucher code "DELIZIORAN" will be valid until 30 May 2024. Please note that any usage after this date will not be applicable.
+• The voucher code is non-transferable and can only be used by the individual to whom it was issued.
+• This voucher code cannot be combined with any other ongoing promotions, offers, or discounts.
+• Only one voucher code can be used per transaction.
+• The discount provided by the voucher code will be applied to the total bill amount, including taxes and service charges, if applicable.
+• The discount is not applicable to any additional charges such as delivery fees or tips.
+• The voucher code can only be redeemed at participating outlets or locations mentioned by the issuing authority.
+• The voucher code has no cash value and cannot be exchanged for cash or any other form of payment.
+• Any unauthorized reproduction, resale, or modification of the voucher code is strictly prohibited and may result in the voucher code being voided.
+• The issuing authority reserves the right to modify or terminate the voucher code at any time without prior notice. In such cases, any unused vouchers will no longer be valid.
+• The voucher code is subject to availability and may be limited in quantity. It is advised to check availability with the participating outlet before visiting.
+• The voucher code is applicable to eligible food and beverage items only and does not cover merchandise or any other non-food items.
+• The voucher code is valid for single-use only. Any remaining balance or unused portion of the discount will not be carried forward or refunded.
+• In case of any dispute, the decision of the issuing authority will be final and binding.
+• By using the voucher code, the user agrees to comply with all the terms and conditions stated herein.
+Please note that these terms and conditions are provided as a general guideline and may be subject to variations based on the specific terms mentioned by the issuing authority of the voucher code "DELIZIORAN." It is advisable to review the terms and conditions provided along with the voucher for precise and accurate information.</t>
+  </si>
+  <si>
     <t>• The voucher code "GOPAYDAY" provides a maximum 5% discount of Rp 20,000 along with free delivery.
 • There is no minimum transaction amount required to avail of the discount and free delivery.
 • The voucher code is applicable for delivery orders only. It cannot be used for dine-in or takeaway orders.
-• The voucher code is valid until 30 May 2023. Please ensure to redeem it before the expiration date.
+• The voucher code is valid until 30 May 2024. Please ensure to redeem it before the expiration date.
 • The discount and free delivery are exclusively available for transactions made using Gopay as the payment method.
 • The voucher code can be used multiple times during the validity period, allowing you to enjoy the discount and free delivery on multiple orders.
 • The discount amount will be applied to the total bill, and the free delivery service will be provided at no additional cost.
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1">
         <v>200000</v>
@@ -866,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="O1" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>200000</v>
@@ -913,10 +913,10 @@
         <v>5</v>
       </c>
       <c r="O2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>50000</v>
@@ -971,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="O4" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/promo.xlsx
+++ b/assets/data/promo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew2\flutter_application_1\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7830CC18-7A59-4F6C-AA16-2DA5F06C45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40DF9C0-1A30-41C4-B5D7-9625282CE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,6 +295,30 @@
           </rPr>
           <t xml:space="preserve">
 year exp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{3E365D8C-281A-4037-A3CD-9CE678B6FE7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ndimas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+percantage in double</t>
         </r>
       </text>
     </comment>
@@ -805,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +846,7 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="360" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="360" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +892,11 @@
       <c r="O1" s="1">
         <v>2024</v>
       </c>
+      <c r="P1" s="1">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +942,11 @@
       <c r="O2" s="1">
         <v>2024</v>
       </c>
+      <c r="P2" s="1">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +992,11 @@
       <c r="O3" s="1">
         <v>2024</v>
       </c>
+      <c r="P3" s="1">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,6 +1041,9 @@
       </c>
       <c r="O4" s="1">
         <v>2024</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/promo.xlsx
+++ b/assets/data/promo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew2\flutter_application_1\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riand\Documents\tmp\flutter_app\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40DF9C0-1A30-41C4-B5D7-9625282CE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D04FA-0344-4083-895F-BE61C687233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="0" windowWidth="12330" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,22 +831,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="110.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.90625" style="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="360" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="348" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>9999999</v>
+        <v>100000</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>13</v>
